--- a/grupos/4BLCM - Estadisticos 20242.xlsx
+++ b/grupos/4BLCM - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="88">
   <si>
     <t>Materia</t>
   </si>
@@ -248,40 +248,40 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>COLMENARES</t>
+  </si>
+  <si>
     <t>ALVAREZ</t>
   </si>
   <si>
-    <t>COLMENARES</t>
+    <t>GUTIERREZ</t>
   </si>
   <si>
     <t>REYES</t>
   </si>
   <si>
-    <t>GUTIERREZ</t>
+    <t>MARTINEZ</t>
   </si>
   <si>
     <t>VOTE</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
+    <t>PAZ</t>
   </si>
   <si>
     <t>ACEVEDO</t>
   </si>
   <si>
-    <t>PAZ</t>
+    <t>JULIO EDUARDO</t>
   </si>
   <si>
     <t>CAMILO</t>
   </si>
   <si>
-    <t>JULIO EDUARDO</t>
+    <t>DANIA LIZETH</t>
   </si>
   <si>
     <t>KAREN AMERICA</t>
-  </si>
-  <si>
-    <t>DANIA LIZETH</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="AA4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB4">
         <v>8</v>
@@ -934,7 +934,7 @@
         <v>9</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>9</v>
@@ -982,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="AA5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB5">
         <v>9</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -1136,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="AA7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB7">
         <v>8</v>
@@ -1237,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -1338,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -1439,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1540,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1641,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -1742,7 +1742,7 @@
         <v>9</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>9</v>
@@ -1843,7 +1843,7 @@
         <v>9</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>9</v>
@@ -1891,7 +1891,7 @@
         <v>10</v>
       </c>
       <c r="AA14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB14">
         <v>10</v>
@@ -1944,7 +1944,7 @@
         <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -1992,7 +1992,7 @@
         <v>7</v>
       </c>
       <c r="AA15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB15">
         <v>8</v>
@@ -2045,7 +2045,7 @@
         <v>9</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>10</v>
@@ -2146,7 +2146,7 @@
         <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -2348,7 +2348,7 @@
         <v>9</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -2396,7 +2396,7 @@
         <v>10</v>
       </c>
       <c r="AA19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB19">
         <v>10</v>
@@ -2449,7 +2449,7 @@
         <v>10</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -2550,7 +2550,7 @@
         <v>9</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="AA21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB21">
         <v>10</v>
@@ -2651,7 +2651,7 @@
         <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L22">
         <v>7</v>
@@ -2752,7 +2752,7 @@
         <v>9</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -2800,7 +2800,7 @@
         <v>9</v>
       </c>
       <c r="AA23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB23">
         <v>10</v>
@@ -2853,7 +2853,7 @@
         <v>10</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -2954,7 +2954,7 @@
         <v>5</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L25">
         <v>6</v>
@@ -2969,7 +2969,7 @@
         <v>6</v>
       </c>
       <c r="P25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -3055,7 +3055,7 @@
         <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L26">
         <v>10</v>
@@ -3156,7 +3156,7 @@
         <v>7</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L27">
         <v>9</v>
@@ -3257,7 +3257,7 @@
         <v>7</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L28">
         <v>8</v>
@@ -3358,7 +3358,7 @@
         <v>7</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L29">
         <v>10</v>
@@ -3406,7 +3406,7 @@
         <v>8</v>
       </c>
       <c r="AA29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB29">
         <v>10</v>
@@ -3459,7 +3459,7 @@
         <v>10</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L30">
         <v>9</v>
@@ -3507,7 +3507,7 @@
         <v>10</v>
       </c>
       <c r="AA30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB30">
         <v>9</v>
@@ -3560,7 +3560,7 @@
         <v>10</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -3608,7 +3608,7 @@
         <v>10</v>
       </c>
       <c r="AA31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB31">
         <v>10</v>
@@ -3661,7 +3661,7 @@
         <v>9</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L32">
         <v>8</v>
@@ -3709,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="AA32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB32">
         <v>8</v>
@@ -3762,7 +3762,7 @@
         <v>6</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L33">
         <v>6</v>
@@ -3810,7 +3810,7 @@
         <v>7</v>
       </c>
       <c r="AA33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB33">
         <v>7</v>
@@ -3863,7 +3863,7 @@
         <v>10</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L34">
         <v>9</v>
@@ -3964,7 +3964,7 @@
         <v>5</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L35">
         <v>9</v>
@@ -4012,7 +4012,7 @@
         <v>7</v>
       </c>
       <c r="AA35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB35">
         <v>9</v>
@@ -4065,7 +4065,7 @@
         <v>9</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L36">
         <v>10</v>
@@ -4166,7 +4166,7 @@
         <v>9</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L37">
         <v>10</v>
@@ -4214,7 +4214,7 @@
         <v>10</v>
       </c>
       <c r="AA37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB37">
         <v>10</v>
@@ -4267,7 +4267,7 @@
         <v>9</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L38">
         <v>9</v>
@@ -4368,7 +4368,7 @@
         <v>10</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L39">
         <v>10</v>
@@ -4469,7 +4469,7 @@
         <v>10</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L40">
         <v>10</v>
@@ -4517,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="AA40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB40">
         <v>10</v>
@@ -4570,7 +4570,7 @@
         <v>8</v>
       </c>
       <c r="K41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L41">
         <v>9</v>
@@ -4618,7 +4618,7 @@
         <v>9</v>
       </c>
       <c r="AA41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB41">
         <v>8</v>
@@ -7768,19 +7768,19 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>86.8</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="G2" s="2">
-        <v>13.2</v>
+        <v>7.9</v>
       </c>
       <c r="H2">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -8077,7 +8077,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>22330061460232</v>
+        <v>22330051920424</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330061460232</v>
+        <v>22330051920424</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>22330051920424</v>
+        <v>22330061460232</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -8181,16 +8181,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>22330051920424</v>
+        <v>23330051920133</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -8207,67 +8207,21 @@
         <v>23330051920142</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>23330051920142</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>23330051920133</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8">
         <v>5</v>
       </c>
     </row>
